--- a/InClassActivities/ProjectRubricICA.xlsx
+++ b/InClassActivities/ProjectRubricICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OneDrive\Documents\GitHub\CMSE830\InClassActivities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A8FD06-6A7D-4298-84B3-5D90C04AC284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F340F9BF-83C5-4068-ACB7-247C454CD4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>Criteria</t>
   </si>
@@ -78,16 +78,10 @@
     <t>Data scaling or transformations applied</t>
   </si>
   <si>
-    <t>If yes, describe briefly</t>
-  </si>
-  <si>
     <t>Missing values identified</t>
   </si>
   <si>
     <t>Missing values repaired (MICE, KNN, etc.)</t>
-  </si>
-  <si>
-    <t>If yes, describe the method used</t>
   </si>
   <si>
     <r>
@@ -118,9 +112,6 @@
     <t>Encoding applied (e.g., one-hot, label)</t>
   </si>
   <si>
-    <t>If yes, specify which</t>
-  </si>
-  <si>
     <t>GitHub &amp; Version Control</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>Tufte’s rules followed</t>
   </si>
   <si>
-    <t>If not, why not?</t>
-  </si>
-  <si>
     <t>Visualizations effectively communicated</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>Any major challenges in data handling</t>
   </si>
   <si>
-    <t>Describe briefly</t>
-  </si>
-  <si>
     <t>Solutions proposed or implemented</t>
   </si>
   <si>
@@ -218,6 +203,45 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Mean imputation</t>
+  </si>
+  <si>
+    <t>[x] Yes [ ] No</t>
+  </si>
+  <si>
+    <t>Very nice upload new data csv</t>
+  </si>
+  <si>
+    <t>Allow user input for new data tables (csvs)</t>
+  </si>
+  <si>
+    <t>[xx] Yes [ ] No</t>
+  </si>
+  <si>
+    <t>Yes, unable to merge data completely bc some data types MAR with respect to source</t>
+  </si>
+  <si>
+    <t>Many pages and tabs within pages</t>
+  </si>
+  <si>
+    <t>In between, most of the group agrees that the value of Tufte's rules is not in following them to a T but in learning how less can be more.</t>
+  </si>
+  <si>
+    <t>NA - no predictions yet</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Label encoded individual demographics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, some data is like </t>
+  </si>
+  <si>
+    <t>Robust scaler with median bc of outliers</t>
   </si>
 </sst>
 </file>
@@ -825,7 +849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -884,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -895,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="21"/>
@@ -904,10 +928,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -915,23 +939,23 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -960,40 +984,36 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -1019,10 +1039,10 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1030,10 +1050,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1041,7 +1061,7 @@
     </row>
     <row r="13" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -1070,13 +1090,13 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1084,10 +1104,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -1095,10 +1115,10 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -1106,7 +1126,7 @@
     </row>
     <row r="17" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -1135,10 +1155,10 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -1146,13 +1166,13 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -1160,10 +1180,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -1171,7 +1191,7 @@
     </row>
     <row r="21" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -1200,13 +1220,13 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1214,13 +1234,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1228,7 +1248,7 @@
     </row>
     <row r="24" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1257,24 +1277,22 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -1282,7 +1300,7 @@
     </row>
     <row r="27" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -1311,10 +1329,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -1322,10 +1340,10 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -1333,10 +1351,10 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -1364,7 +1382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10:F30"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1412,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1423,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -1434,21 +1452,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1456,23 +1472,23 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1501,40 +1517,36 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -1560,10 +1572,10 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1571,10 +1583,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1582,7 +1594,7 @@
     </row>
     <row r="13" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -1611,13 +1623,13 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1625,10 +1637,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -1636,10 +1648,13 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -1647,7 +1662,7 @@
     </row>
     <row r="17" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -1676,10 +1691,10 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -1687,24 +1702,22 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -1712,7 +1725,7 @@
     </row>
     <row r="21" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -1741,10 +1754,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1752,10 +1765,10 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1763,7 +1776,7 @@
     </row>
     <row r="24" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1792,13 +1805,13 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -1806,10 +1819,10 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -1817,7 +1830,7 @@
     </row>
     <row r="27" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -1846,10 +1859,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -1857,10 +1870,10 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -1868,10 +1881,10 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -1899,7 +1912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1942,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1958,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -1969,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1980,10 +1993,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1991,23 +2004,23 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -2036,27 +2049,25 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -2064,12 +2075,12 @@
     </row>
     <row r="10" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -2095,10 +2106,10 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -2106,10 +2117,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -2117,7 +2128,7 @@
     </row>
     <row r="13" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -2146,13 +2157,13 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -2160,10 +2171,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -2171,10 +2182,10 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -2182,7 +2193,7 @@
     </row>
     <row r="17" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -2211,10 +2222,10 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -2222,24 +2233,22 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -2247,7 +2256,7 @@
     </row>
     <row r="21" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -2276,10 +2285,13 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -2287,10 +2299,10 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -2298,7 +2310,7 @@
     </row>
     <row r="24" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -2327,13 +2339,13 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -2341,10 +2353,10 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -2352,7 +2364,7 @@
     </row>
     <row r="27" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -2381,10 +2393,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -2392,10 +2404,10 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -2403,10 +2415,10 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
